--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -76,85 +76,91 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>nice</t>
@@ -163,81 +169,78 @@
     <t>years</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
@@ -248,6 +251,9 @@
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
@@ -614,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -757,13 +763,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4108527131782946</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3434343434343434</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.871517027863777</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="L6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1243243243243243</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1017,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6915254237288135</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L12">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M12">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1069,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6883116883116883</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1089,13 +1095,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1115,13 +1121,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6619718309859155</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1141,13 +1147,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.630016051364366</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>785</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>785</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>461</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1167,13 +1173,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5882352941176471</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1193,13 +1199,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5714285714285714</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1245,13 +1251,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1271,13 +1277,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5542857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1297,13 +1303,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.546875</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1323,13 +1329,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.515625</v>
       </c>
       <c r="L23">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1349,13 +1355,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5329341317365269</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L24">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1375,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5060240963855421</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1401,13 +1407,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1427,13 +1433,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.492063492063492</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1453,13 +1459,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4868421052631579</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1479,13 +1485,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.49</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1505,13 +1511,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4769230769230769</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1531,13 +1537,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1557,13 +1563,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.43</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1583,13 +1589,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4210526315789473</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1609,13 +1615,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3795180722891566</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1635,13 +1641,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3759398496240601</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1661,13 +1667,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3651960784313725</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L36">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>259</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1687,13 +1693,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3618677042801556</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L37">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>164</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1713,13 +1719,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.360655737704918</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1739,13 +1745,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.3529411764705883</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1757,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1765,13 +1771,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.3209876543209876</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1783,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1791,13 +1797,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.3082191780821918</v>
+        <v>0.310958904109589</v>
       </c>
       <c r="L41">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M41">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1809,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1817,13 +1823,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2932330827067669</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1835,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1843,13 +1849,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2805755395683453</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1861,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1869,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.271523178807947</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1895,13 +1901,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2631578947368421</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L45">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1913,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1921,13 +1927,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2432723358449946</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L46">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>703</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1947,13 +1953,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2277227722772277</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1965,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1973,13 +1979,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2252252252252252</v>
+        <v>0.2357373519913886</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>86</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1999,13 +2005,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2222222222222222</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>84</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2025,13 +2031,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2072072072072072</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>88</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2051,13 +2057,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1960264900662252</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L51">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2069,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>607</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2077,13 +2083,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1880877742946709</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L52">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>259</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2103,13 +2109,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1879795396419437</v>
+        <v>0.180306905370844</v>
       </c>
       <c r="L53">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M53">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2121,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2129,13 +2135,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1812080536912752</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2155,25 +2161,25 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1524390243902439</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>139</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2181,25 +2187,25 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1436314363143631</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L56">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2207,13 +2213,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1386363636363636</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L57">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M57">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2225,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2233,13 +2239,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.1180811808118081</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2251,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>239</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2259,13 +2265,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.116945107398568</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L59">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M59">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2277,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>370</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2285,13 +2291,13 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1140350877192982</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L60">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M60">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2303,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2311,13 +2317,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1050420168067227</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2329,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>213</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2337,13 +2343,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.09975669099756691</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L62">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2355,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>370</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2363,13 +2369,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.09965635738831616</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2381,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>262</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2389,25 +2395,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.08921933085501858</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2415,13 +2421,13 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.06902985074626866</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L65">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2433,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>998</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2441,13 +2447,13 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.05873925501432665</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="M66">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>657</v>
+        <v>992</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2467,25 +2473,25 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.05350553505535055</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>513</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2493,25 +2499,77 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.04246100519930676</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L68">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1105</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K69">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L69">
+        <v>29</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="L70">
+        <v>55</v>
+      </c>
+      <c r="M70">
+        <v>57</v>
+      </c>
+      <c r="N70">
+        <v>0.96</v>
+      </c>
+      <c r="O70">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
